--- a/Day08/result/kto_미국.xlsx
+++ b/Day08/result/kto_미국.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42989</v>
+        <v>26943</v>
       </c>
       <c r="C2" t="n">
-        <v>418</v>
+        <v>1195</v>
       </c>
       <c r="D2" t="n">
-        <v>2578</v>
+        <v>2145</v>
       </c>
       <c r="E2" t="n">
-        <v>229</v>
+        <v>135</v>
       </c>
       <c r="F2" t="n">
-        <v>16523</v>
+        <v>12647</v>
       </c>
       <c r="G2" t="n">
-        <v>62737</v>
+        <v>43065</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -525,10 +525,10 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>68.5</v>
+        <v>62.6</v>
       </c>
       <c r="K2" t="n">
-        <v>4.9</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="3">
@@ -538,22 +538,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42989</v>
+        <v>26268</v>
       </c>
       <c r="C3" t="n">
-        <v>418</v>
+        <v>997</v>
       </c>
       <c r="D3" t="n">
-        <v>2578</v>
+        <v>1315</v>
       </c>
       <c r="E3" t="n">
-        <v>229</v>
+        <v>391</v>
       </c>
       <c r="F3" t="n">
-        <v>16523</v>
+        <v>12106</v>
       </c>
       <c r="G3" t="n">
-        <v>62737</v>
+        <v>41077</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>68.5</v>
+        <v>63.9</v>
       </c>
       <c r="K3" t="n">
-        <v>4.9</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="4">
@@ -579,22 +579,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42989</v>
+        <v>40143</v>
       </c>
       <c r="C4" t="n">
-        <v>418</v>
+        <v>1250</v>
       </c>
       <c r="D4" t="n">
-        <v>2578</v>
+        <v>1533</v>
       </c>
       <c r="E4" t="n">
-        <v>229</v>
+        <v>61</v>
       </c>
       <c r="F4" t="n">
-        <v>16523</v>
+        <v>11623</v>
       </c>
       <c r="G4" t="n">
-        <v>62737</v>
+        <v>54610</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -607,10 +607,10 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>68.5</v>
+        <v>73.5</v>
       </c>
       <c r="K4" t="n">
-        <v>4.9</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="5">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42989</v>
+        <v>45939</v>
       </c>
       <c r="C5" t="n">
-        <v>418</v>
+        <v>1121</v>
       </c>
       <c r="D5" t="n">
-        <v>2578</v>
+        <v>2424</v>
       </c>
       <c r="E5" t="n">
-        <v>229</v>
+        <v>48</v>
       </c>
       <c r="F5" t="n">
-        <v>16523</v>
+        <v>10084</v>
       </c>
       <c r="G5" t="n">
-        <v>62737</v>
+        <v>59616</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>68.5</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>4.9</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42989</v>
+        <v>44951</v>
       </c>
       <c r="C6" t="n">
-        <v>418</v>
+        <v>1000</v>
       </c>
       <c r="D6" t="n">
-        <v>2578</v>
+        <v>2205</v>
       </c>
       <c r="E6" t="n">
-        <v>229</v>
+        <v>77</v>
       </c>
       <c r="F6" t="n">
-        <v>16523</v>
+        <v>11547</v>
       </c>
       <c r="G6" t="n">
-        <v>62737</v>
+        <v>59780</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>68.5</v>
+        <v>75.2</v>
       </c>
       <c r="K6" t="n">
-        <v>4.9</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="7">
@@ -702,22 +702,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42989</v>
+        <v>50711</v>
       </c>
       <c r="C7" t="n">
-        <v>418</v>
+        <v>1004</v>
       </c>
       <c r="D7" t="n">
-        <v>2578</v>
+        <v>2314</v>
       </c>
       <c r="E7" t="n">
-        <v>229</v>
+        <v>68</v>
       </c>
       <c r="F7" t="n">
-        <v>16523</v>
+        <v>10315</v>
       </c>
       <c r="G7" t="n">
-        <v>62737</v>
+        <v>64412</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -730,10 +730,10 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>68.5</v>
+        <v>78.7</v>
       </c>
       <c r="K7" t="n">
-        <v>4.9</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>42989</v>
+        <v>44732</v>
       </c>
       <c r="C8" t="n">
-        <v>418</v>
+        <v>947</v>
       </c>
       <c r="D8" t="n">
-        <v>2578</v>
+        <v>1846</v>
       </c>
       <c r="E8" t="n">
-        <v>229</v>
+        <v>113</v>
       </c>
       <c r="F8" t="n">
-        <v>16523</v>
+        <v>11805</v>
       </c>
       <c r="G8" t="n">
-        <v>62737</v>
+        <v>59443</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -771,10 +771,10 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>68.5</v>
+        <v>75.3</v>
       </c>
       <c r="K8" t="n">
-        <v>4.9</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -784,22 +784,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>42989</v>
+        <v>35671</v>
       </c>
       <c r="C9" t="n">
-        <v>418</v>
+        <v>1183</v>
       </c>
       <c r="D9" t="n">
-        <v>2578</v>
+        <v>1877</v>
       </c>
       <c r="E9" t="n">
-        <v>229</v>
+        <v>562</v>
       </c>
       <c r="F9" t="n">
-        <v>16523</v>
+        <v>17084</v>
       </c>
       <c r="G9" t="n">
-        <v>62737</v>
+        <v>56377</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -812,10 +812,10 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>68.5</v>
+        <v>63.3</v>
       </c>
       <c r="K9" t="n">
-        <v>4.9</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="10">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42989</v>
+        <v>40747</v>
       </c>
       <c r="C10" t="n">
-        <v>418</v>
+        <v>1119</v>
       </c>
       <c r="D10" t="n">
-        <v>2578</v>
+        <v>1283</v>
       </c>
       <c r="E10" t="n">
-        <v>229</v>
+        <v>125</v>
       </c>
       <c r="F10" t="n">
-        <v>16523</v>
+        <v>13030</v>
       </c>
       <c r="G10" t="n">
-        <v>62737</v>
+        <v>56304</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>68.5</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>4.9</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="11">
@@ -866,22 +866,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>42989</v>
+        <v>49798</v>
       </c>
       <c r="C11" t="n">
-        <v>418</v>
+        <v>1327</v>
       </c>
       <c r="D11" t="n">
-        <v>2578</v>
+        <v>1228</v>
       </c>
       <c r="E11" t="n">
-        <v>229</v>
+        <v>69</v>
       </c>
       <c r="F11" t="n">
-        <v>16523</v>
+        <v>11534</v>
       </c>
       <c r="G11" t="n">
-        <v>62737</v>
+        <v>63956</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -894,10 +894,10 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>68.5</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>4.9</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="12">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>42989</v>
+        <v>36582</v>
       </c>
       <c r="C12" t="n">
-        <v>418</v>
+        <v>1047</v>
       </c>
       <c r="D12" t="n">
-        <v>2578</v>
+        <v>1523</v>
       </c>
       <c r="E12" t="n">
-        <v>229</v>
+        <v>52</v>
       </c>
       <c r="F12" t="n">
-        <v>16523</v>
+        <v>9878</v>
       </c>
       <c r="G12" t="n">
-        <v>62737</v>
+        <v>49082</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>68.5</v>
+        <v>74.5</v>
       </c>
       <c r="K12" t="n">
-        <v>4.9</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="13">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>42989</v>
+        <v>33401</v>
       </c>
       <c r="C13" t="n">
-        <v>418</v>
+        <v>779</v>
       </c>
       <c r="D13" t="n">
-        <v>2578</v>
+        <v>1124</v>
       </c>
       <c r="E13" t="n">
-        <v>229</v>
+        <v>71</v>
       </c>
       <c r="F13" t="n">
-        <v>16523</v>
+        <v>9792</v>
       </c>
       <c r="G13" t="n">
-        <v>62737</v>
+        <v>45167</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -976,10 +976,10 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>68.5</v>
+        <v>74</v>
       </c>
       <c r="K13" t="n">
-        <v>4.9</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="14">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>42989</v>
+        <v>27866</v>
       </c>
       <c r="C14" t="n">
-        <v>418</v>
+        <v>1042</v>
       </c>
       <c r="D14" t="n">
-        <v>2578</v>
+        <v>1460</v>
       </c>
       <c r="E14" t="n">
-        <v>229</v>
+        <v>173</v>
       </c>
       <c r="F14" t="n">
-        <v>16523</v>
+        <v>13611</v>
       </c>
       <c r="G14" t="n">
-        <v>62737</v>
+        <v>44152</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1017,10 +1017,10 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>68.5</v>
+        <v>63.1</v>
       </c>
       <c r="K14" t="n">
-        <v>4.9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1030,22 +1030,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>42989</v>
+        <v>26837</v>
       </c>
       <c r="C15" t="n">
-        <v>418</v>
+        <v>866</v>
       </c>
       <c r="D15" t="n">
-        <v>2578</v>
+        <v>879</v>
       </c>
       <c r="E15" t="n">
-        <v>229</v>
+        <v>449</v>
       </c>
       <c r="F15" t="n">
-        <v>16523</v>
+        <v>14469</v>
       </c>
       <c r="G15" t="n">
-        <v>62737</v>
+        <v>43500</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>68.5</v>
+        <v>61.7</v>
       </c>
       <c r="K15" t="n">
-        <v>4.9</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="16">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>42989</v>
+        <v>40121</v>
       </c>
       <c r="C16" t="n">
-        <v>418</v>
+        <v>1034</v>
       </c>
       <c r="D16" t="n">
-        <v>2578</v>
+        <v>790</v>
       </c>
       <c r="E16" t="n">
-        <v>229</v>
+        <v>69</v>
       </c>
       <c r="F16" t="n">
-        <v>16523</v>
+        <v>12121</v>
       </c>
       <c r="G16" t="n">
-        <v>62737</v>
+        <v>54135</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>68.5</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>4.9</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="17">
@@ -1112,22 +1112,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>42989</v>
+        <v>45489</v>
       </c>
       <c r="C17" t="n">
-        <v>418</v>
+        <v>888</v>
       </c>
       <c r="D17" t="n">
-        <v>2578</v>
+        <v>1686</v>
       </c>
       <c r="E17" t="n">
-        <v>229</v>
+        <v>62</v>
       </c>
       <c r="F17" t="n">
-        <v>16523</v>
+        <v>10095</v>
       </c>
       <c r="G17" t="n">
-        <v>62737</v>
+        <v>58220</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1140,10 +1140,10 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>68.5</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>4.9</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="18">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>42989</v>
+        <v>47110</v>
       </c>
       <c r="C18" t="n">
-        <v>418</v>
+        <v>993</v>
       </c>
       <c r="D18" t="n">
-        <v>2578</v>
+        <v>1450</v>
       </c>
       <c r="E18" t="n">
-        <v>229</v>
+        <v>109</v>
       </c>
       <c r="F18" t="n">
-        <v>16523</v>
+        <v>11415</v>
       </c>
       <c r="G18" t="n">
-        <v>62737</v>
+        <v>61077</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1181,10 +1181,10 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>68.5</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>4.9</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -1194,22 +1194,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>42989</v>
+        <v>48633</v>
       </c>
       <c r="C19" t="n">
-        <v>418</v>
+        <v>929</v>
       </c>
       <c r="D19" t="n">
-        <v>2578</v>
+        <v>1215</v>
       </c>
       <c r="E19" t="n">
-        <v>229</v>
+        <v>89</v>
       </c>
       <c r="F19" t="n">
-        <v>16523</v>
+        <v>10342</v>
       </c>
       <c r="G19" t="n">
-        <v>62737</v>
+        <v>61208</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1222,10 +1222,10 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>68.5</v>
+        <v>79.5</v>
       </c>
       <c r="K19" t="n">
-        <v>4.9</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="20">
@@ -1235,22 +1235,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>42989</v>
+        <v>45717</v>
       </c>
       <c r="C20" t="n">
-        <v>418</v>
+        <v>859</v>
       </c>
       <c r="D20" t="n">
-        <v>2578</v>
+        <v>1647</v>
       </c>
       <c r="E20" t="n">
-        <v>229</v>
+        <v>125</v>
       </c>
       <c r="F20" t="n">
-        <v>16523</v>
+        <v>12174</v>
       </c>
       <c r="G20" t="n">
-        <v>62737</v>
+        <v>60522</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>68.5</v>
+        <v>75.5</v>
       </c>
       <c r="K20" t="n">
-        <v>4.9</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="21">
@@ -1276,22 +1276,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>42989</v>
+        <v>37783</v>
       </c>
       <c r="C21" t="n">
-        <v>418</v>
+        <v>936</v>
       </c>
       <c r="D21" t="n">
-        <v>2578</v>
+        <v>1790</v>
       </c>
       <c r="E21" t="n">
-        <v>229</v>
+        <v>632</v>
       </c>
       <c r="F21" t="n">
-        <v>16523</v>
+        <v>16676</v>
       </c>
       <c r="G21" t="n">
-        <v>62737</v>
+        <v>57817</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1304,10 +1304,10 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>68.5</v>
+        <v>65.3</v>
       </c>
       <c r="K21" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="22">
@@ -1317,22 +1317,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>42989</v>
+        <v>41587</v>
       </c>
       <c r="C22" t="n">
-        <v>418</v>
+        <v>901</v>
       </c>
       <c r="D22" t="n">
-        <v>2578</v>
+        <v>1226</v>
       </c>
       <c r="E22" t="n">
-        <v>229</v>
+        <v>69</v>
       </c>
       <c r="F22" t="n">
-        <v>16523</v>
+        <v>12320</v>
       </c>
       <c r="G22" t="n">
-        <v>62737</v>
+        <v>56103</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1345,10 +1345,10 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>68.5</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>4.9</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="23">
@@ -1358,22 +1358,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>42989</v>
+        <v>50836</v>
       </c>
       <c r="C23" t="n">
-        <v>418</v>
+        <v>1113</v>
       </c>
       <c r="D23" t="n">
-        <v>2578</v>
+        <v>1173</v>
       </c>
       <c r="E23" t="n">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="F23" t="n">
-        <v>16523</v>
+        <v>11981</v>
       </c>
       <c r="G23" t="n">
-        <v>62737</v>
+        <v>65158</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1386,10 +1386,10 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>68.5</v>
+        <v>78</v>
       </c>
       <c r="K23" t="n">
-        <v>4.9</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="24">
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>42989</v>
+        <v>38839</v>
       </c>
       <c r="C24" t="n">
-        <v>418</v>
+        <v>786</v>
       </c>
       <c r="D24" t="n">
-        <v>2578</v>
+        <v>1263</v>
       </c>
       <c r="E24" t="n">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="F24" t="n">
-        <v>16523</v>
+        <v>10126</v>
       </c>
       <c r="G24" t="n">
-        <v>62737</v>
+        <v>51094</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>68.5</v>
+        <v>76</v>
       </c>
       <c r="K24" t="n">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="25">
@@ -1440,22 +1440,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>42989</v>
+        <v>35775</v>
       </c>
       <c r="C25" t="n">
-        <v>418</v>
+        <v>695</v>
       </c>
       <c r="D25" t="n">
-        <v>2578</v>
+        <v>1246</v>
       </c>
       <c r="E25" t="n">
-        <v>229</v>
+        <v>71</v>
       </c>
       <c r="F25" t="n">
-        <v>16523</v>
+        <v>10730</v>
       </c>
       <c r="G25" t="n">
-        <v>62737</v>
+        <v>48517</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1468,10 +1468,10 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>68.5</v>
+        <v>73.7</v>
       </c>
       <c r="K25" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="26">
@@ -1481,22 +1481,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>42989</v>
+        <v>29961</v>
       </c>
       <c r="C26" t="n">
-        <v>418</v>
+        <v>694</v>
       </c>
       <c r="D26" t="n">
-        <v>2578</v>
+        <v>1308</v>
       </c>
       <c r="E26" t="n">
-        <v>229</v>
+        <v>140</v>
       </c>
       <c r="F26" t="n">
-        <v>16523</v>
+        <v>14642</v>
       </c>
       <c r="G26" t="n">
-        <v>62737</v>
+        <v>46745</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1509,10 +1509,10 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>68.5</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="27">
@@ -1522,22 +1522,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>42989</v>
+        <v>32504</v>
       </c>
       <c r="C27" t="n">
-        <v>418</v>
+        <v>494</v>
       </c>
       <c r="D27" t="n">
-        <v>2578</v>
+        <v>876</v>
       </c>
       <c r="E27" t="n">
-        <v>229</v>
+        <v>426</v>
       </c>
       <c r="F27" t="n">
-        <v>16523</v>
+        <v>13626</v>
       </c>
       <c r="G27" t="n">
-        <v>62737</v>
+        <v>47926</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1550,10 +1550,10 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>68.5</v>
+        <v>67.8</v>
       </c>
       <c r="K27" t="n">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="28">
@@ -1563,22 +1563,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>42989</v>
+        <v>42005</v>
       </c>
       <c r="C28" t="n">
-        <v>418</v>
+        <v>598</v>
       </c>
       <c r="D28" t="n">
-        <v>2578</v>
+        <v>1301</v>
       </c>
       <c r="E28" t="n">
-        <v>229</v>
+        <v>78</v>
       </c>
       <c r="F28" t="n">
-        <v>16523</v>
+        <v>11925</v>
       </c>
       <c r="G28" t="n">
-        <v>62737</v>
+        <v>55907</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1591,10 +1591,10 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>68.5</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>4.9</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="29">
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>42989</v>
+        <v>50988</v>
       </c>
       <c r="C29" t="n">
-        <v>418</v>
+        <v>606</v>
       </c>
       <c r="D29" t="n">
-        <v>2578</v>
+        <v>1401</v>
       </c>
       <c r="E29" t="n">
-        <v>229</v>
+        <v>71</v>
       </c>
       <c r="F29" t="n">
-        <v>16523</v>
+        <v>11319</v>
       </c>
       <c r="G29" t="n">
-        <v>62737</v>
+        <v>64385</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1632,10 +1632,10 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>68.5</v>
+        <v>79.2</v>
       </c>
       <c r="K29" t="n">
-        <v>4.9</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="30">
@@ -1645,22 +1645,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>42989</v>
+        <v>51105</v>
       </c>
       <c r="C30" t="n">
-        <v>418</v>
+        <v>514</v>
       </c>
       <c r="D30" t="n">
-        <v>2578</v>
+        <v>1238</v>
       </c>
       <c r="E30" t="n">
-        <v>229</v>
+        <v>84</v>
       </c>
       <c r="F30" t="n">
-        <v>16523</v>
+        <v>12031</v>
       </c>
       <c r="G30" t="n">
-        <v>62737</v>
+        <v>64972</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1673,10 +1673,10 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>68.5</v>
+        <v>78.7</v>
       </c>
       <c r="K30" t="n">
-        <v>4.9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -1686,22 +1686,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>42989</v>
+        <v>53498</v>
       </c>
       <c r="C31" t="n">
-        <v>418</v>
+        <v>503</v>
       </c>
       <c r="D31" t="n">
-        <v>2578</v>
+        <v>1004</v>
       </c>
       <c r="E31" t="n">
-        <v>229</v>
+        <v>76</v>
       </c>
       <c r="F31" t="n">
-        <v>16523</v>
+        <v>10968</v>
       </c>
       <c r="G31" t="n">
-        <v>62737</v>
+        <v>66049</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1714,10 +1714,10 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>68.5</v>
+        <v>81</v>
       </c>
       <c r="K31" t="n">
-        <v>4.9</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="32">
@@ -1727,22 +1727,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>42989</v>
+        <v>47718</v>
       </c>
       <c r="C32" t="n">
-        <v>418</v>
+        <v>481</v>
       </c>
       <c r="D32" t="n">
-        <v>2578</v>
+        <v>1602</v>
       </c>
       <c r="E32" t="n">
-        <v>229</v>
+        <v>122</v>
       </c>
       <c r="F32" t="n">
-        <v>16523</v>
+        <v>11932</v>
       </c>
       <c r="G32" t="n">
-        <v>62737</v>
+        <v>61855</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1755,10 +1755,10 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>68.5</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K32" t="n">
-        <v>4.9</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="33">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>42989</v>
+        <v>38228</v>
       </c>
       <c r="C33" t="n">
-        <v>418</v>
+        <v>540</v>
       </c>
       <c r="D33" t="n">
-        <v>2578</v>
+        <v>1645</v>
       </c>
       <c r="E33" t="n">
-        <v>229</v>
+        <v>724</v>
       </c>
       <c r="F33" t="n">
-        <v>16523</v>
+        <v>16990</v>
       </c>
       <c r="G33" t="n">
-        <v>62737</v>
+        <v>58127</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1796,10 +1796,10 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>68.5</v>
+        <v>65.8</v>
       </c>
       <c r="K33" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="34">
@@ -1809,22 +1809,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>42989</v>
+        <v>45164</v>
       </c>
       <c r="C34" t="n">
-        <v>418</v>
+        <v>484</v>
       </c>
       <c r="D34" t="n">
-        <v>2578</v>
+        <v>1175</v>
       </c>
       <c r="E34" t="n">
-        <v>229</v>
+        <v>42</v>
       </c>
       <c r="F34" t="n">
-        <v>16523</v>
+        <v>10954</v>
       </c>
       <c r="G34" t="n">
-        <v>62737</v>
+        <v>57819</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1837,10 +1837,10 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>68.5</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K34" t="n">
-        <v>4.9</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="35">
@@ -1850,22 +1850,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>42989</v>
+        <v>54335</v>
       </c>
       <c r="C35" t="n">
-        <v>418</v>
+        <v>707</v>
       </c>
       <c r="D35" t="n">
-        <v>2578</v>
+        <v>1044</v>
       </c>
       <c r="E35" t="n">
-        <v>229</v>
+        <v>124</v>
       </c>
       <c r="F35" t="n">
-        <v>16523</v>
+        <v>15003</v>
       </c>
       <c r="G35" t="n">
-        <v>62737</v>
+        <v>71213</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1878,10 +1878,10 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>68.5</v>
+        <v>76.3</v>
       </c>
       <c r="K35" t="n">
-        <v>4.9</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="36">
@@ -1891,22 +1891,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>42989</v>
+        <v>39742</v>
       </c>
       <c r="C36" t="n">
-        <v>418</v>
+        <v>556</v>
       </c>
       <c r="D36" t="n">
-        <v>2578</v>
+        <v>1204</v>
       </c>
       <c r="E36" t="n">
-        <v>229</v>
+        <v>92</v>
       </c>
       <c r="F36" t="n">
-        <v>16523</v>
+        <v>11655</v>
       </c>
       <c r="G36" t="n">
-        <v>62737</v>
+        <v>53249</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1919,10 +1919,10 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>68.5</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K36" t="n">
-        <v>4.9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>42989</v>
+        <v>36906</v>
       </c>
       <c r="C37" t="n">
-        <v>418</v>
+        <v>525</v>
       </c>
       <c r="D37" t="n">
-        <v>2578</v>
+        <v>1136</v>
       </c>
       <c r="E37" t="n">
-        <v>229</v>
+        <v>93</v>
       </c>
       <c r="F37" t="n">
-        <v>16523</v>
+        <v>10959</v>
       </c>
       <c r="G37" t="n">
-        <v>62737</v>
+        <v>49619</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1960,10 +1960,10 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>68.5</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="K37" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="38">
@@ -1973,22 +1973,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>42989</v>
+        <v>32468</v>
       </c>
       <c r="C38" t="n">
-        <v>418</v>
+        <v>689</v>
       </c>
       <c r="D38" t="n">
-        <v>2578</v>
+        <v>1534</v>
       </c>
       <c r="E38" t="n">
-        <v>229</v>
+        <v>163</v>
       </c>
       <c r="F38" t="n">
-        <v>16523</v>
+        <v>14217</v>
       </c>
       <c r="G38" t="n">
-        <v>62737</v>
+        <v>49071</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>68.5</v>
+        <v>66.2</v>
       </c>
       <c r="K38" t="n">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="39">
@@ -2014,22 +2014,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>42989</v>
+        <v>29924</v>
       </c>
       <c r="C39" t="n">
-        <v>418</v>
+        <v>542</v>
       </c>
       <c r="D39" t="n">
-        <v>2578</v>
+        <v>888</v>
       </c>
       <c r="E39" t="n">
-        <v>229</v>
+        <v>564</v>
       </c>
       <c r="F39" t="n">
-        <v>16523</v>
+        <v>13184</v>
       </c>
       <c r="G39" t="n">
-        <v>62737</v>
+        <v>45102</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>68.5</v>
+        <v>66.3</v>
       </c>
       <c r="K39" t="n">
         <v>4.9</v>
@@ -2055,22 +2055,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>42989</v>
+        <v>46779</v>
       </c>
       <c r="C40" t="n">
-        <v>418</v>
+        <v>719</v>
       </c>
       <c r="D40" t="n">
-        <v>2578</v>
+        <v>932</v>
       </c>
       <c r="E40" t="n">
-        <v>229</v>
+        <v>113</v>
       </c>
       <c r="F40" t="n">
-        <v>16523</v>
+        <v>14673</v>
       </c>
       <c r="G40" t="n">
-        <v>62737</v>
+        <v>63216</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -2083,10 +2083,10 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>68.5</v>
+        <v>74</v>
       </c>
       <c r="K40" t="n">
-        <v>4.9</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="41">
@@ -2096,22 +2096,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>42989</v>
+        <v>49297</v>
       </c>
       <c r="C41" t="n">
-        <v>418</v>
+        <v>765</v>
       </c>
       <c r="D41" t="n">
-        <v>2578</v>
+        <v>1529</v>
       </c>
       <c r="E41" t="n">
-        <v>229</v>
+        <v>104</v>
       </c>
       <c r="F41" t="n">
-        <v>16523</v>
+        <v>13565</v>
       </c>
       <c r="G41" t="n">
-        <v>62737</v>
+        <v>65260</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -2124,10 +2124,10 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>68.5</v>
+        <v>75.5</v>
       </c>
       <c r="K41" t="n">
-        <v>4.9</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="42">
@@ -2137,22 +2137,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>42989</v>
+        <v>50073</v>
       </c>
       <c r="C42" t="n">
-        <v>418</v>
+        <v>880</v>
       </c>
       <c r="D42" t="n">
-        <v>2578</v>
+        <v>1162</v>
       </c>
       <c r="E42" t="n">
-        <v>229</v>
+        <v>128</v>
       </c>
       <c r="F42" t="n">
-        <v>16523</v>
+        <v>13008</v>
       </c>
       <c r="G42" t="n">
-        <v>62737</v>
+        <v>65251</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -2165,10 +2165,10 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>68.5</v>
+        <v>76.7</v>
       </c>
       <c r="K42" t="n">
-        <v>4.9</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="43">
@@ -2178,22 +2178,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>42989</v>
+        <v>55298</v>
       </c>
       <c r="C43" t="n">
-        <v>418</v>
+        <v>880</v>
       </c>
       <c r="D43" t="n">
-        <v>2578</v>
+        <v>1076</v>
       </c>
       <c r="E43" t="n">
-        <v>229</v>
+        <v>124</v>
       </c>
       <c r="F43" t="n">
-        <v>16523</v>
+        <v>12820</v>
       </c>
       <c r="G43" t="n">
-        <v>62737</v>
+        <v>70198</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>68.5</v>
+        <v>78.8</v>
       </c>
       <c r="K43" t="n">
-        <v>4.9</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="44">
@@ -2219,22 +2219,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>42989</v>
+        <v>47032</v>
       </c>
       <c r="C44" t="n">
-        <v>418</v>
+        <v>958</v>
       </c>
       <c r="D44" t="n">
-        <v>2578</v>
+        <v>1764</v>
       </c>
       <c r="E44" t="n">
-        <v>229</v>
+        <v>152</v>
       </c>
       <c r="F44" t="n">
-        <v>16523</v>
+        <v>13417</v>
       </c>
       <c r="G44" t="n">
-        <v>62737</v>
+        <v>63323</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -2247,10 +2247,10 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>68.5</v>
+        <v>74.3</v>
       </c>
       <c r="K44" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="45">
@@ -2260,22 +2260,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>42989</v>
+        <v>37702</v>
       </c>
       <c r="C45" t="n">
-        <v>418</v>
+        <v>1010</v>
       </c>
       <c r="D45" t="n">
-        <v>2578</v>
+        <v>1564</v>
       </c>
       <c r="E45" t="n">
-        <v>229</v>
+        <v>735</v>
       </c>
       <c r="F45" t="n">
-        <v>16523</v>
+        <v>18342</v>
       </c>
       <c r="G45" t="n">
-        <v>62737</v>
+        <v>59353</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -2288,10 +2288,10 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>68.5</v>
+        <v>63.5</v>
       </c>
       <c r="K45" t="n">
-        <v>4.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="46">
@@ -2301,22 +2301,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>42989</v>
+        <v>45473</v>
       </c>
       <c r="C46" t="n">
-        <v>418</v>
+        <v>1185</v>
       </c>
       <c r="D46" t="n">
-        <v>2578</v>
+        <v>1230</v>
       </c>
       <c r="E46" t="n">
-        <v>229</v>
+        <v>115</v>
       </c>
       <c r="F46" t="n">
-        <v>16523</v>
+        <v>14643</v>
       </c>
       <c r="G46" t="n">
-        <v>62737</v>
+        <v>62646</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2329,10 +2329,10 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>68.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="K46" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="47">
@@ -2342,22 +2342,22 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>42989</v>
+        <v>56652</v>
       </c>
       <c r="C47" t="n">
-        <v>418</v>
+        <v>974</v>
       </c>
       <c r="D47" t="n">
-        <v>2578</v>
+        <v>885</v>
       </c>
       <c r="E47" t="n">
-        <v>229</v>
+        <v>77</v>
       </c>
       <c r="F47" t="n">
-        <v>16523</v>
+        <v>13561</v>
       </c>
       <c r="G47" t="n">
-        <v>62737</v>
+        <v>72149</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2370,10 +2370,10 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>68.5</v>
+        <v>78.5</v>
       </c>
       <c r="K47" t="n">
-        <v>4.9</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="48">
@@ -2383,22 +2383,22 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>42989</v>
+        <v>40680</v>
       </c>
       <c r="C48" t="n">
-        <v>418</v>
+        <v>1095</v>
       </c>
       <c r="D48" t="n">
-        <v>2578</v>
+        <v>1149</v>
       </c>
       <c r="E48" t="n">
-        <v>229</v>
+        <v>91</v>
       </c>
       <c r="F48" t="n">
-        <v>16523</v>
+        <v>10879</v>
       </c>
       <c r="G48" t="n">
-        <v>62737</v>
+        <v>53894</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -2411,10 +2411,10 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>68.5</v>
+        <v>75.5</v>
       </c>
       <c r="K48" t="n">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="49">
@@ -2424,22 +2424,22 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>42989</v>
+        <v>38544</v>
       </c>
       <c r="C49" t="n">
-        <v>418</v>
+        <v>1112</v>
       </c>
       <c r="D49" t="n">
-        <v>2578</v>
+        <v>1593</v>
       </c>
       <c r="E49" t="n">
-        <v>229</v>
+        <v>90</v>
       </c>
       <c r="F49" t="n">
-        <v>16523</v>
+        <v>11513</v>
       </c>
       <c r="G49" t="n">
-        <v>62737</v>
+        <v>52852</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -2452,10 +2452,10 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>68.5</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="K49" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="50">
@@ -2465,22 +2465,22 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>42989</v>
+        <v>32773</v>
       </c>
       <c r="C50" t="n">
-        <v>418</v>
+        <v>1072</v>
       </c>
       <c r="D50" t="n">
-        <v>2578</v>
+        <v>1639</v>
       </c>
       <c r="E50" t="n">
-        <v>229</v>
+        <v>188</v>
       </c>
       <c r="F50" t="n">
-        <v>16523</v>
+        <v>14675</v>
       </c>
       <c r="G50" t="n">
-        <v>62737</v>
+        <v>50347</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -2493,10 +2493,10 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>68.5</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="K50" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="51">
@@ -2506,22 +2506,22 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>42989</v>
+        <v>32037</v>
       </c>
       <c r="C51" t="n">
-        <v>418</v>
+        <v>865</v>
       </c>
       <c r="D51" t="n">
-        <v>2578</v>
+        <v>1084</v>
       </c>
       <c r="E51" t="n">
-        <v>229</v>
+        <v>598</v>
       </c>
       <c r="F51" t="n">
-        <v>16523</v>
+        <v>13962</v>
       </c>
       <c r="G51" t="n">
-        <v>62737</v>
+        <v>48546</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -2534,10 +2534,10 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>68.5</v>
+        <v>66</v>
       </c>
       <c r="K51" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
@@ -2547,22 +2547,22 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>42989</v>
+        <v>48065</v>
       </c>
       <c r="C52" t="n">
-        <v>418</v>
+        <v>1005</v>
       </c>
       <c r="D52" t="n">
-        <v>2578</v>
+        <v>1090</v>
       </c>
       <c r="E52" t="n">
-        <v>229</v>
+        <v>98</v>
       </c>
       <c r="F52" t="n">
-        <v>16523</v>
+        <v>14743</v>
       </c>
       <c r="G52" t="n">
-        <v>62737</v>
+        <v>65001</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -2575,10 +2575,10 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>68.5</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="K52" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="53">
@@ -2588,22 +2588,22 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>42989</v>
+        <v>54859</v>
       </c>
       <c r="C53" t="n">
-        <v>418</v>
+        <v>979</v>
       </c>
       <c r="D53" t="n">
-        <v>2578</v>
+        <v>1997</v>
       </c>
       <c r="E53" t="n">
-        <v>229</v>
+        <v>93</v>
       </c>
       <c r="F53" t="n">
-        <v>16523</v>
+        <v>12267</v>
       </c>
       <c r="G53" t="n">
-        <v>62737</v>
+        <v>70195</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -2616,10 +2616,10 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>68.5</v>
+        <v>78.2</v>
       </c>
       <c r="K53" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="54">
@@ -2629,22 +2629,22 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>42989</v>
+        <v>51402</v>
       </c>
       <c r="C54" t="n">
-        <v>418</v>
+        <v>1185</v>
       </c>
       <c r="D54" t="n">
-        <v>2578</v>
+        <v>1411</v>
       </c>
       <c r="E54" t="n">
-        <v>229</v>
+        <v>138</v>
       </c>
       <c r="F54" t="n">
-        <v>16523</v>
+        <v>13792</v>
       </c>
       <c r="G54" t="n">
-        <v>62737</v>
+        <v>67928</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2657,10 +2657,10 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>68.5</v>
+        <v>75.7</v>
       </c>
       <c r="K54" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="55">
@@ -2670,22 +2670,22 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>42989</v>
+        <v>59597</v>
       </c>
       <c r="C55" t="n">
-        <v>418</v>
+        <v>827</v>
       </c>
       <c r="D55" t="n">
-        <v>2578</v>
+        <v>1319</v>
       </c>
       <c r="E55" t="n">
-        <v>229</v>
+        <v>117</v>
       </c>
       <c r="F55" t="n">
-        <v>16523</v>
+        <v>13065</v>
       </c>
       <c r="G55" t="n">
-        <v>62737</v>
+        <v>74925</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2698,10 +2698,10 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>68.5</v>
+        <v>79.5</v>
       </c>
       <c r="K55" t="n">
-        <v>4.9</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="56">
@@ -2711,22 +2711,22 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>42989</v>
+        <v>51695</v>
       </c>
       <c r="C56" t="n">
-        <v>418</v>
+        <v>953</v>
       </c>
       <c r="D56" t="n">
-        <v>2578</v>
+        <v>1868</v>
       </c>
       <c r="E56" t="n">
-        <v>229</v>
+        <v>132</v>
       </c>
       <c r="F56" t="n">
-        <v>16523</v>
+        <v>13532</v>
       </c>
       <c r="G56" t="n">
-        <v>62737</v>
+        <v>68180</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2739,10 +2739,10 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>68.5</v>
+        <v>75.8</v>
       </c>
       <c r="K56" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
@@ -2752,22 +2752,22 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>42989</v>
+        <v>42524</v>
       </c>
       <c r="C57" t="n">
-        <v>418</v>
+        <v>865</v>
       </c>
       <c r="D57" t="n">
-        <v>2578</v>
+        <v>1911</v>
       </c>
       <c r="E57" t="n">
-        <v>229</v>
+        <v>926</v>
       </c>
       <c r="F57" t="n">
-        <v>16523</v>
+        <v>17756</v>
       </c>
       <c r="G57" t="n">
-        <v>62737</v>
+        <v>63982</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2780,10 +2780,10 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>68.5</v>
+        <v>66.5</v>
       </c>
       <c r="K57" t="n">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="58">
@@ -2793,22 +2793,22 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>42989</v>
+        <v>53490</v>
       </c>
       <c r="C58" t="n">
-        <v>418</v>
+        <v>938</v>
       </c>
       <c r="D58" t="n">
-        <v>2578</v>
+        <v>1333</v>
       </c>
       <c r="E58" t="n">
-        <v>229</v>
+        <v>95</v>
       </c>
       <c r="F58" t="n">
-        <v>16523</v>
+        <v>13799</v>
       </c>
       <c r="G58" t="n">
-        <v>62737</v>
+        <v>69655</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2821,10 +2821,10 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>68.5</v>
+        <v>76.8</v>
       </c>
       <c r="K58" t="n">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="59">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>42989</v>
+        <v>60234</v>
       </c>
       <c r="C59" t="n">
-        <v>418</v>
+        <v>799</v>
       </c>
       <c r="D59" t="n">
-        <v>2578</v>
+        <v>1301</v>
       </c>
       <c r="E59" t="n">
-        <v>229</v>
+        <v>70</v>
       </c>
       <c r="F59" t="n">
-        <v>16523</v>
+        <v>15432</v>
       </c>
       <c r="G59" t="n">
-        <v>62737</v>
+        <v>77836</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2862,10 +2862,10 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>68.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="K59" t="n">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="60">
@@ -2875,22 +2875,22 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>42989</v>
+        <v>45092</v>
       </c>
       <c r="C60" t="n">
-        <v>418</v>
+        <v>772</v>
       </c>
       <c r="D60" t="n">
-        <v>2578</v>
+        <v>1564</v>
       </c>
       <c r="E60" t="n">
-        <v>229</v>
+        <v>136</v>
       </c>
       <c r="F60" t="n">
-        <v>16523</v>
+        <v>11145</v>
       </c>
       <c r="G60" t="n">
-        <v>62737</v>
+        <v>58709</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2903,10 +2903,10 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>68.5</v>
+        <v>76.8</v>
       </c>
       <c r="K60" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>42989</v>
+        <v>41762</v>
       </c>
       <c r="C61" t="n">
-        <v>418</v>
+        <v>695</v>
       </c>
       <c r="D61" t="n">
-        <v>2578</v>
+        <v>1426</v>
       </c>
       <c r="E61" t="n">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="F61" t="n">
-        <v>16523</v>
+        <v>10970</v>
       </c>
       <c r="G61" t="n">
-        <v>62737</v>
+        <v>55001</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2944,10 +2944,10 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>68.5</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="K61" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="62">
@@ -2957,22 +2957,22 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>42989</v>
+        <v>33727</v>
       </c>
       <c r="C62" t="n">
-        <v>418</v>
+        <v>755</v>
       </c>
       <c r="D62" t="n">
-        <v>2578</v>
+        <v>1796</v>
       </c>
       <c r="E62" t="n">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="F62" t="n">
-        <v>16523</v>
+        <v>14420</v>
       </c>
       <c r="G62" t="n">
-        <v>62737</v>
+        <v>50896</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -2985,10 +2985,10 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>68.5</v>
+        <v>66.3</v>
       </c>
       <c r="K62" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="63">
@@ -2998,22 +2998,22 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>42989</v>
+        <v>31724</v>
       </c>
       <c r="C63" t="n">
-        <v>418</v>
+        <v>636</v>
       </c>
       <c r="D63" t="n">
-        <v>2578</v>
+        <v>1197</v>
       </c>
       <c r="E63" t="n">
-        <v>229</v>
+        <v>719</v>
       </c>
       <c r="F63" t="n">
-        <v>16523</v>
+        <v>14452</v>
       </c>
       <c r="G63" t="n">
-        <v>62737</v>
+        <v>48728</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>68.5</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="K63" t="n">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="64">
@@ -3039,22 +3039,22 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>42989</v>
+        <v>51156</v>
       </c>
       <c r="C64" t="n">
-        <v>418</v>
+        <v>752</v>
       </c>
       <c r="D64" t="n">
-        <v>2578</v>
+        <v>1187</v>
       </c>
       <c r="E64" t="n">
-        <v>229</v>
+        <v>127</v>
       </c>
       <c r="F64" t="n">
-        <v>16523</v>
+        <v>13533</v>
       </c>
       <c r="G64" t="n">
-        <v>62737</v>
+        <v>66755</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -3067,10 +3067,10 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>68.5</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="K64" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="65">
@@ -3080,22 +3080,22 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>42989</v>
+        <v>62410</v>
       </c>
       <c r="C65" t="n">
-        <v>418</v>
+        <v>581</v>
       </c>
       <c r="D65" t="n">
-        <v>2578</v>
+        <v>2272</v>
       </c>
       <c r="E65" t="n">
-        <v>229</v>
+        <v>99</v>
       </c>
       <c r="F65" t="n">
-        <v>16523</v>
+        <v>14758</v>
       </c>
       <c r="G65" t="n">
-        <v>62737</v>
+        <v>80120</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -3108,10 +3108,10 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>68.5</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K65" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="66">
@@ -3121,22 +3121,22 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>42989</v>
+        <v>55214</v>
       </c>
       <c r="C66" t="n">
-        <v>418</v>
+        <v>629</v>
       </c>
       <c r="D66" t="n">
-        <v>2578</v>
+        <v>1802</v>
       </c>
       <c r="E66" t="n">
-        <v>229</v>
+        <v>166</v>
       </c>
       <c r="F66" t="n">
-        <v>16523</v>
+        <v>13080</v>
       </c>
       <c r="G66" t="n">
-        <v>62737</v>
+        <v>70891</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -3149,10 +3149,10 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>68.5</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K66" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="67">
@@ -3162,22 +3162,22 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>42989</v>
+        <v>49148</v>
       </c>
       <c r="C67" t="n">
-        <v>418</v>
+        <v>514</v>
       </c>
       <c r="D67" t="n">
-        <v>2578</v>
+        <v>1430</v>
       </c>
       <c r="E67" t="n">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="F67" t="n">
-        <v>16523</v>
+        <v>11302</v>
       </c>
       <c r="G67" t="n">
-        <v>62737</v>
+        <v>62550</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -3190,10 +3190,10 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>68.5</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K67" t="n">
-        <v>4.9</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="68">
@@ -3203,22 +3203,22 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>42989</v>
+        <v>46563</v>
       </c>
       <c r="C68" t="n">
-        <v>418</v>
+        <v>514</v>
       </c>
       <c r="D68" t="n">
-        <v>2578</v>
+        <v>2267</v>
       </c>
       <c r="E68" t="n">
-        <v>229</v>
+        <v>138</v>
       </c>
       <c r="F68" t="n">
-        <v>16523</v>
+        <v>13145</v>
       </c>
       <c r="G68" t="n">
-        <v>62737</v>
+        <v>62627</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -3231,10 +3231,10 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>68.5</v>
+        <v>74.3</v>
       </c>
       <c r="K68" t="n">
-        <v>4.9</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="69">
@@ -3244,22 +3244,22 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>42989</v>
+        <v>41599</v>
       </c>
       <c r="C69" t="n">
-        <v>418</v>
+        <v>601</v>
       </c>
       <c r="D69" t="n">
-        <v>2578</v>
+        <v>2151</v>
       </c>
       <c r="E69" t="n">
-        <v>229</v>
+        <v>938</v>
       </c>
       <c r="F69" t="n">
-        <v>16523</v>
+        <v>18233</v>
       </c>
       <c r="G69" t="n">
-        <v>62737</v>
+        <v>63522</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -3272,10 +3272,10 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>68.5</v>
+        <v>65.5</v>
       </c>
       <c r="K69" t="n">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="70">
@@ -3285,22 +3285,22 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>42989</v>
+        <v>48750</v>
       </c>
       <c r="C70" t="n">
-        <v>418</v>
+        <v>582</v>
       </c>
       <c r="D70" t="n">
-        <v>2578</v>
+        <v>1468</v>
       </c>
       <c r="E70" t="n">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="F70" t="n">
-        <v>16523</v>
+        <v>12819</v>
       </c>
       <c r="G70" t="n">
-        <v>62737</v>
+        <v>63793</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -3313,10 +3313,10 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>68.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="K70" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="71">
@@ -3326,22 +3326,22 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>42989</v>
+        <v>61045</v>
       </c>
       <c r="C71" t="n">
-        <v>418</v>
+        <v>532</v>
       </c>
       <c r="D71" t="n">
-        <v>2578</v>
+        <v>1327</v>
       </c>
       <c r="E71" t="n">
-        <v>229</v>
+        <v>85</v>
       </c>
       <c r="F71" t="n">
-        <v>16523</v>
+        <v>14889</v>
       </c>
       <c r="G71" t="n">
-        <v>62737</v>
+        <v>77878</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -3354,10 +3354,10 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>68.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K71" t="n">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="72">
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>42989</v>
+        <v>47883</v>
       </c>
       <c r="C72" t="n">
-        <v>418</v>
+        <v>542</v>
       </c>
       <c r="D72" t="n">
-        <v>2578</v>
+        <v>1891</v>
       </c>
       <c r="E72" t="n">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="F72" t="n">
-        <v>16523</v>
+        <v>11787</v>
       </c>
       <c r="G72" t="n">
-        <v>62737</v>
+        <v>62273</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -3395,10 +3395,10 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>68.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K72" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="73">
@@ -3408,22 +3408,22 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>42989</v>
+        <v>43975</v>
       </c>
       <c r="C73" t="n">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="D73" t="n">
-        <v>2578</v>
+        <v>1581</v>
       </c>
       <c r="E73" t="n">
-        <v>229</v>
+        <v>134</v>
       </c>
       <c r="F73" t="n">
-        <v>16523</v>
+        <v>11419</v>
       </c>
       <c r="G73" t="n">
-        <v>62737</v>
+        <v>57580</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -3436,7 +3436,7 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>68.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="K73" t="n">
         <v>4.9</v>
@@ -3449,22 +3449,22 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>42989</v>
+        <v>36829</v>
       </c>
       <c r="C74" t="n">
-        <v>418</v>
+        <v>566</v>
       </c>
       <c r="D74" t="n">
-        <v>2578</v>
+        <v>2090</v>
       </c>
       <c r="E74" t="n">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="F74" t="n">
-        <v>16523</v>
+        <v>16036</v>
       </c>
       <c r="G74" t="n">
-        <v>62737</v>
+        <v>55739</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -3477,10 +3477,10 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>68.5</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="K74" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="75">
@@ -3490,22 +3490,22 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>42989</v>
+        <v>32972</v>
       </c>
       <c r="C75" t="n">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="D75" t="n">
-        <v>2578</v>
+        <v>1246</v>
       </c>
       <c r="E75" t="n">
-        <v>229</v>
+        <v>820</v>
       </c>
       <c r="F75" t="n">
-        <v>16523</v>
+        <v>15244</v>
       </c>
       <c r="G75" t="n">
-        <v>62737</v>
+        <v>50705</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -3518,10 +3518,10 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>68.5</v>
+        <v>65</v>
       </c>
       <c r="K75" t="n">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="76">
@@ -3531,22 +3531,22 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>42989</v>
+        <v>53173</v>
       </c>
       <c r="C76" t="n">
-        <v>418</v>
+        <v>467</v>
       </c>
       <c r="D76" t="n">
-        <v>2578</v>
+        <v>1238</v>
       </c>
       <c r="E76" t="n">
-        <v>229</v>
+        <v>96</v>
       </c>
       <c r="F76" t="n">
-        <v>16523</v>
+        <v>13745</v>
       </c>
       <c r="G76" t="n">
-        <v>62737</v>
+        <v>68719</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -3559,10 +3559,10 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>68.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="K76" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="77">
@@ -3572,22 +3572,22 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>42989</v>
+        <v>64733</v>
       </c>
       <c r="C77" t="n">
-        <v>418</v>
+        <v>487</v>
       </c>
       <c r="D77" t="n">
-        <v>2578</v>
+        <v>2571</v>
       </c>
       <c r="E77" t="n">
-        <v>229</v>
+        <v>78</v>
       </c>
       <c r="F77" t="n">
-        <v>16523</v>
+        <v>13570</v>
       </c>
       <c r="G77" t="n">
-        <v>62737</v>
+        <v>81439</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -3600,10 +3600,10 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>68.5</v>
+        <v>79.5</v>
       </c>
       <c r="K77" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="78">
@@ -3613,22 +3613,22 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>42989</v>
+        <v>63675</v>
       </c>
       <c r="C78" t="n">
-        <v>418</v>
+        <v>518</v>
       </c>
       <c r="D78" t="n">
-        <v>2578</v>
+        <v>2210</v>
       </c>
       <c r="E78" t="n">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F78" t="n">
-        <v>16523</v>
+        <v>13864</v>
       </c>
       <c r="G78" t="n">
-        <v>62737</v>
+        <v>80489</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -3641,10 +3641,10 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>68.5</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K78" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="79">
@@ -3654,22 +3654,22 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>42989</v>
+        <v>72286</v>
       </c>
       <c r="C79" t="n">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="D79" t="n">
-        <v>2578</v>
+        <v>1774</v>
       </c>
       <c r="E79" t="n">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="F79" t="n">
-        <v>16523</v>
+        <v>13597</v>
       </c>
       <c r="G79" t="n">
-        <v>62737</v>
+        <v>88276</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -3682,10 +3682,10 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>68.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K79" t="n">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="80">
@@ -3695,22 +3695,22 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>42989</v>
+        <v>60376</v>
       </c>
       <c r="C80" t="n">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="D80" t="n">
-        <v>2578</v>
+        <v>2540</v>
       </c>
       <c r="E80" t="n">
-        <v>229</v>
+        <v>164</v>
       </c>
       <c r="F80" t="n">
-        <v>16523</v>
+        <v>15039</v>
       </c>
       <c r="G80" t="n">
-        <v>62737</v>
+        <v>78526</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -3723,10 +3723,10 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>68.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K80" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="81">
@@ -3736,22 +3736,22 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>42989</v>
+        <v>48543</v>
       </c>
       <c r="C81" t="n">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="D81" t="n">
-        <v>2578</v>
+        <v>2234</v>
       </c>
       <c r="E81" t="n">
-        <v>229</v>
+        <v>1014</v>
       </c>
       <c r="F81" t="n">
-        <v>16523</v>
+        <v>17213</v>
       </c>
       <c r="G81" t="n">
-        <v>62737</v>
+        <v>69434</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>68.5</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="K81" t="n">
-        <v>4.9</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="82">
@@ -3777,22 +3777,22 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>42989</v>
+        <v>57952</v>
       </c>
       <c r="C82" t="n">
-        <v>418</v>
+        <v>458</v>
       </c>
       <c r="D82" t="n">
-        <v>2578</v>
+        <v>1616</v>
       </c>
       <c r="E82" t="n">
-        <v>229</v>
+        <v>107</v>
       </c>
       <c r="F82" t="n">
-        <v>16523</v>
+        <v>15603</v>
       </c>
       <c r="G82" t="n">
-        <v>62737</v>
+        <v>75736</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -3805,10 +3805,10 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>68.5</v>
+        <v>76.5</v>
       </c>
       <c r="K82" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="83">
@@ -3818,22 +3818,22 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>42989</v>
+        <v>66931</v>
       </c>
       <c r="C83" t="n">
-        <v>418</v>
+        <v>351</v>
       </c>
       <c r="D83" t="n">
-        <v>2578</v>
+        <v>1598</v>
       </c>
       <c r="E83" t="n">
-        <v>229</v>
+        <v>105</v>
       </c>
       <c r="F83" t="n">
-        <v>16523</v>
+        <v>13900</v>
       </c>
       <c r="G83" t="n">
-        <v>62737</v>
+        <v>82885</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -3846,10 +3846,10 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>68.5</v>
+        <v>80.8</v>
       </c>
       <c r="K83" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="84">
@@ -3859,22 +3859,22 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>42989</v>
+        <v>52025</v>
       </c>
       <c r="C84" t="n">
-        <v>418</v>
+        <v>346</v>
       </c>
       <c r="D84" t="n">
-        <v>2578</v>
+        <v>2329</v>
       </c>
       <c r="E84" t="n">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="F84" t="n">
-        <v>16523</v>
+        <v>12746</v>
       </c>
       <c r="G84" t="n">
-        <v>62737</v>
+        <v>67641</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -3887,10 +3887,10 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>68.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K84" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="85">
@@ -3900,22 +3900,22 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>42989</v>
+        <v>50162</v>
       </c>
       <c r="C85" t="n">
-        <v>418</v>
+        <v>354</v>
       </c>
       <c r="D85" t="n">
-        <v>2578</v>
+        <v>2269</v>
       </c>
       <c r="E85" t="n">
-        <v>229</v>
+        <v>188</v>
       </c>
       <c r="F85" t="n">
-        <v>16523</v>
+        <v>13624</v>
       </c>
       <c r="G85" t="n">
-        <v>62737</v>
+        <v>66597</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -3928,10 +3928,10 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>68.5</v>
+        <v>75.3</v>
       </c>
       <c r="K85" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="86">
@@ -3941,22 +3941,22 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>42989</v>
+        <v>37630</v>
       </c>
       <c r="C86" t="n">
-        <v>418</v>
+        <v>447</v>
       </c>
       <c r="D86" t="n">
-        <v>2578</v>
+        <v>2278</v>
       </c>
       <c r="E86" t="n">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="F86" t="n">
-        <v>16523</v>
+        <v>16637</v>
       </c>
       <c r="G86" t="n">
-        <v>62737</v>
+        <v>57212</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -3969,10 +3969,10 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>68.5</v>
+        <v>65.8</v>
       </c>
       <c r="K86" t="n">
-        <v>4.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="87">
@@ -3982,22 +3982,22 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>42989</v>
+        <v>35860</v>
       </c>
       <c r="C87" t="n">
-        <v>418</v>
+        <v>353</v>
       </c>
       <c r="D87" t="n">
-        <v>2578</v>
+        <v>1630</v>
       </c>
       <c r="E87" t="n">
-        <v>229</v>
+        <v>885</v>
       </c>
       <c r="F87" t="n">
-        <v>16523</v>
+        <v>14004</v>
       </c>
       <c r="G87" t="n">
-        <v>62737</v>
+        <v>52732</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -4010,10 +4010,10 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>68.5</v>
+        <v>68</v>
       </c>
       <c r="K87" t="n">
-        <v>4.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="88">
@@ -4023,22 +4023,22 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>42989</v>
+        <v>56367</v>
       </c>
       <c r="C88" t="n">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="D88" t="n">
-        <v>2578</v>
+        <v>1396</v>
       </c>
       <c r="E88" t="n">
-        <v>229</v>
+        <v>119</v>
       </c>
       <c r="F88" t="n">
-        <v>16523</v>
+        <v>14169</v>
       </c>
       <c r="G88" t="n">
-        <v>62737</v>
+        <v>72477</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>68.5</v>
+        <v>77.8</v>
       </c>
       <c r="K88" t="n">
-        <v>4.9</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="89">
@@ -4064,22 +4064,22 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>42989</v>
+        <v>65961</v>
       </c>
       <c r="C89" t="n">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="D89" t="n">
-        <v>2578</v>
+        <v>3281</v>
       </c>
       <c r="E89" t="n">
-        <v>229</v>
+        <v>113</v>
       </c>
       <c r="F89" t="n">
-        <v>16523</v>
+        <v>13731</v>
       </c>
       <c r="G89" t="n">
-        <v>62737</v>
+        <v>83485</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -4092,10 +4092,10 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>68.5</v>
+        <v>79</v>
       </c>
       <c r="K89" t="n">
-        <v>4.9</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="90">
@@ -4105,22 +4105,22 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>42989</v>
+        <v>58444</v>
       </c>
       <c r="C90" t="n">
-        <v>418</v>
+        <v>459</v>
       </c>
       <c r="D90" t="n">
-        <v>2578</v>
+        <v>2229</v>
       </c>
       <c r="E90" t="n">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="F90" t="n">
-        <v>16523</v>
+        <v>14952</v>
       </c>
       <c r="G90" t="n">
-        <v>62737</v>
+        <v>76347</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -4133,10 +4133,10 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>68.5</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="K90" t="n">
-        <v>4.9</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="91">
@@ -4146,22 +4146,22 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>42989</v>
+        <v>70021</v>
       </c>
       <c r="C91" t="n">
-        <v>418</v>
+        <v>381</v>
       </c>
       <c r="D91" t="n">
-        <v>2578</v>
+        <v>1752</v>
       </c>
       <c r="E91" t="n">
-        <v>229</v>
+        <v>185</v>
       </c>
       <c r="F91" t="n">
-        <v>16523</v>
+        <v>13616</v>
       </c>
       <c r="G91" t="n">
-        <v>62737</v>
+        <v>85955</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -4174,10 +4174,10 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>68.5</v>
+        <v>81.5</v>
       </c>
       <c r="K91" t="n">
-        <v>4.9</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92">
@@ -4187,22 +4187,22 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>42989</v>
+        <v>63853</v>
       </c>
       <c r="C92" t="n">
-        <v>418</v>
+        <v>378</v>
       </c>
       <c r="D92" t="n">
-        <v>2578</v>
+        <v>2897</v>
       </c>
       <c r="E92" t="n">
-        <v>229</v>
+        <v>171</v>
       </c>
       <c r="F92" t="n">
-        <v>16523</v>
+        <v>15173</v>
       </c>
       <c r="G92" t="n">
-        <v>62737</v>
+        <v>82472</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -4215,10 +4215,10 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>68.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="K92" t="n">
-        <v>4.9</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="93">
@@ -4228,22 +4228,22 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>42989</v>
+        <v>49516</v>
       </c>
       <c r="C93" t="n">
-        <v>418</v>
+        <v>384</v>
       </c>
       <c r="D93" t="n">
-        <v>2578</v>
+        <v>2632</v>
       </c>
       <c r="E93" t="n">
-        <v>229</v>
+        <v>1259</v>
       </c>
       <c r="F93" t="n">
-        <v>16523</v>
+        <v>17705</v>
       </c>
       <c r="G93" t="n">
-        <v>62737</v>
+        <v>71496</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
@@ -4256,10 +4256,10 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>68.5</v>
+        <v>69.3</v>
       </c>
       <c r="K93" t="n">
-        <v>4.9</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="94">
@@ -4269,22 +4269,22 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>42989</v>
+        <v>54948</v>
       </c>
       <c r="C94" t="n">
-        <v>418</v>
+        <v>325</v>
       </c>
       <c r="D94" t="n">
-        <v>2578</v>
+        <v>1938</v>
       </c>
       <c r="E94" t="n">
-        <v>229</v>
+        <v>128</v>
       </c>
       <c r="F94" t="n">
-        <v>16523</v>
+        <v>13594</v>
       </c>
       <c r="G94" t="n">
-        <v>62737</v>
+        <v>70933</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
@@ -4297,10 +4297,10 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>68.5</v>
+        <v>77.5</v>
       </c>
       <c r="K94" t="n">
-        <v>4.9</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="95">
@@ -4310,22 +4310,22 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>42989</v>
+        <v>60233</v>
       </c>
       <c r="C95" t="n">
-        <v>418</v>
+        <v>446</v>
       </c>
       <c r="D95" t="n">
-        <v>2578</v>
+        <v>1933</v>
       </c>
       <c r="E95" t="n">
-        <v>229</v>
+        <v>169</v>
       </c>
       <c r="F95" t="n">
-        <v>16523</v>
+        <v>17219</v>
       </c>
       <c r="G95" t="n">
-        <v>62737</v>
+        <v>80000</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -4338,10 +4338,10 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>68.5</v>
+        <v>75.3</v>
       </c>
       <c r="K95" t="n">
-        <v>4.9</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="96">
@@ -4351,22 +4351,22 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>42989</v>
+        <v>52491</v>
       </c>
       <c r="C96" t="n">
-        <v>418</v>
+        <v>316</v>
       </c>
       <c r="D96" t="n">
-        <v>2578</v>
+        <v>2919</v>
       </c>
       <c r="E96" t="n">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F96" t="n">
-        <v>16523</v>
+        <v>13059</v>
       </c>
       <c r="G96" t="n">
-        <v>62737</v>
+        <v>69009</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -4379,10 +4379,10 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>68.5</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="K96" t="n">
-        <v>4.9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97">
@@ -4392,22 +4392,22 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>42989</v>
+        <v>49662</v>
       </c>
       <c r="C97" t="n">
-        <v>418</v>
+        <v>265</v>
       </c>
       <c r="D97" t="n">
-        <v>2578</v>
+        <v>2456</v>
       </c>
       <c r="E97" t="n">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="F97" t="n">
-        <v>16523</v>
+        <v>14164</v>
       </c>
       <c r="G97" t="n">
-        <v>62737</v>
+        <v>66763</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -4420,10 +4420,10 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>68.5</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="K97" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="98">
@@ -4433,22 +4433,22 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>42989</v>
+        <v>40407</v>
       </c>
       <c r="C98" t="n">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D98" t="n">
-        <v>2578</v>
+        <v>2480</v>
       </c>
       <c r="E98" t="n">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F98" t="n">
-        <v>16523</v>
+        <v>16362</v>
       </c>
       <c r="G98" t="n">
-        <v>62737</v>
+        <v>59895</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -4461,10 +4461,10 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>68.5</v>
+        <v>67.5</v>
       </c>
       <c r="K98" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="99">
@@ -4474,22 +4474,22 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>42989</v>
+        <v>46981</v>
       </c>
       <c r="C99" t="n">
-        <v>418</v>
+        <v>252</v>
       </c>
       <c r="D99" t="n">
-        <v>2578</v>
+        <v>1959</v>
       </c>
       <c r="E99" t="n">
-        <v>229</v>
+        <v>934</v>
       </c>
       <c r="F99" t="n">
-        <v>16523</v>
+        <v>15923</v>
       </c>
       <c r="G99" t="n">
-        <v>62737</v>
+        <v>66049</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -4502,10 +4502,10 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>68.5</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="K99" t="n">
-        <v>4.9</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="100">
@@ -4515,22 +4515,22 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>42989</v>
+        <v>62903</v>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>344</v>
       </c>
       <c r="D100" t="n">
-        <v>2578</v>
+        <v>1663</v>
       </c>
       <c r="E100" t="n">
-        <v>229</v>
+        <v>114</v>
       </c>
       <c r="F100" t="n">
-        <v>16523</v>
+        <v>15055</v>
       </c>
       <c r="G100" t="n">
-        <v>62737</v>
+        <v>80079</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>68.5</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K100" t="n">
-        <v>4.9</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="101">
@@ -4556,22 +4556,22 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>42989</v>
+        <v>71177</v>
       </c>
       <c r="C101" t="n">
-        <v>418</v>
+        <v>332</v>
       </c>
       <c r="D101" t="n">
-        <v>2578</v>
+        <v>2873</v>
       </c>
       <c r="E101" t="n">
-        <v>229</v>
+        <v>108</v>
       </c>
       <c r="F101" t="n">
-        <v>16523</v>
+        <v>14719</v>
       </c>
       <c r="G101" t="n">
-        <v>62737</v>
+        <v>89209</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -4584,10 +4584,10 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>68.5</v>
+        <v>79.8</v>
       </c>
       <c r="K101" t="n">
-        <v>4.9</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="102">
@@ -4597,22 +4597,22 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>42989</v>
+        <v>66792</v>
       </c>
       <c r="C102" t="n">
-        <v>418</v>
+        <v>336</v>
       </c>
       <c r="D102" t="n">
-        <v>2578</v>
+        <v>2362</v>
       </c>
       <c r="E102" t="n">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="F102" t="n">
-        <v>16523</v>
+        <v>14861</v>
       </c>
       <c r="G102" t="n">
-        <v>62737</v>
+        <v>84601</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
@@ -4625,10 +4625,10 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>68.5</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K102" t="n">
-        <v>4.9</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="103">
@@ -4638,22 +4638,22 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>42989</v>
+        <v>78313</v>
       </c>
       <c r="C103" t="n">
-        <v>418</v>
+        <v>326</v>
       </c>
       <c r="D103" t="n">
-        <v>2578</v>
+        <v>2178</v>
       </c>
       <c r="E103" t="n">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="F103" t="n">
-        <v>16523</v>
+        <v>13680</v>
       </c>
       <c r="G103" t="n">
-        <v>62737</v>
+        <v>94742</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
@@ -4666,10 +4666,10 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>68.5</v>
+        <v>82.7</v>
       </c>
       <c r="K103" t="n">
-        <v>4.9</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="104">
@@ -4679,22 +4679,22 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>42989</v>
+        <v>72143</v>
       </c>
       <c r="C104" t="n">
-        <v>418</v>
+        <v>307</v>
       </c>
       <c r="D104" t="n">
-        <v>2578</v>
+        <v>2707</v>
       </c>
       <c r="E104" t="n">
-        <v>229</v>
+        <v>175</v>
       </c>
       <c r="F104" t="n">
-        <v>16523</v>
+        <v>14938</v>
       </c>
       <c r="G104" t="n">
-        <v>62737</v>
+        <v>90270</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
@@ -4707,10 +4707,10 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>68.5</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K104" t="n">
-        <v>4.9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105">
@@ -4720,22 +4720,22 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>42989</v>
+        <v>55367</v>
       </c>
       <c r="C105" t="n">
-        <v>418</v>
+        <v>352</v>
       </c>
       <c r="D105" t="n">
-        <v>2578</v>
+        <v>2534</v>
       </c>
       <c r="E105" t="n">
-        <v>229</v>
+        <v>1298</v>
       </c>
       <c r="F105" t="n">
-        <v>16523</v>
+        <v>17768</v>
       </c>
       <c r="G105" t="n">
-        <v>62737</v>
+        <v>77319</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
@@ -4748,10 +4748,10 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>68.5</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="K105" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106">
@@ -4761,22 +4761,22 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>42989</v>
+        <v>60776</v>
       </c>
       <c r="C106" t="n">
-        <v>418</v>
+        <v>348</v>
       </c>
       <c r="D106" t="n">
-        <v>2578</v>
+        <v>2067</v>
       </c>
       <c r="E106" t="n">
-        <v>229</v>
+        <v>175</v>
       </c>
       <c r="F106" t="n">
-        <v>16523</v>
+        <v>15460</v>
       </c>
       <c r="G106" t="n">
-        <v>62737</v>
+        <v>78826</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
@@ -4789,10 +4789,10 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>68.5</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K106" t="n">
-        <v>4.9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107">
@@ -4802,22 +4802,22 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>42989</v>
+        <v>80509</v>
       </c>
       <c r="C107" t="n">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="D107" t="n">
-        <v>2578</v>
+        <v>1721</v>
       </c>
       <c r="E107" t="n">
-        <v>229</v>
+        <v>98</v>
       </c>
       <c r="F107" t="n">
-        <v>16523</v>
+        <v>15393</v>
       </c>
       <c r="G107" t="n">
-        <v>62737</v>
+        <v>98103</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
@@ -4830,10 +4830,10 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>68.5</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K107" t="n">
-        <v>4.9</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="108">
@@ -4843,22 +4843,22 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>42989</v>
+        <v>60601</v>
       </c>
       <c r="C108" t="n">
-        <v>418</v>
+        <v>336</v>
       </c>
       <c r="D108" t="n">
-        <v>2578</v>
+        <v>2679</v>
       </c>
       <c r="E108" t="n">
-        <v>229</v>
+        <v>291</v>
       </c>
       <c r="F108" t="n">
-        <v>16523</v>
+        <v>13969</v>
       </c>
       <c r="G108" t="n">
-        <v>62737</v>
+        <v>77876</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
@@ -4871,10 +4871,10 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>68.5</v>
+        <v>77.8</v>
       </c>
       <c r="K108" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="109">
@@ -4884,22 +4884,22 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>42989</v>
+        <v>52998</v>
       </c>
       <c r="C109" t="n">
-        <v>418</v>
+        <v>304</v>
       </c>
       <c r="D109" t="n">
-        <v>2578</v>
+        <v>2804</v>
       </c>
       <c r="E109" t="n">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F109" t="n">
-        <v>16523</v>
+        <v>14690</v>
       </c>
       <c r="G109" t="n">
-        <v>62737</v>
+        <v>71023</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
@@ -4912,10 +4912,10 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>68.5</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="K109" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="110">
@@ -4966,22 +4966,22 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>42989</v>
+        <v>38475</v>
       </c>
       <c r="C111" t="n">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="D111" t="n">
-        <v>2578</v>
+        <v>1970</v>
       </c>
       <c r="E111" t="n">
-        <v>229</v>
+        <v>1144</v>
       </c>
       <c r="F111" t="n">
-        <v>16523</v>
+        <v>15757</v>
       </c>
       <c r="G111" t="n">
-        <v>62737</v>
+        <v>57732</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
@@ -4994,10 +4994,10 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>68.5</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="K111" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="112">
@@ -5007,22 +5007,22 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>42989</v>
+        <v>65448</v>
       </c>
       <c r="C112" t="n">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="D112" t="n">
-        <v>2578</v>
+        <v>2221</v>
       </c>
       <c r="E112" t="n">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="F112" t="n">
-        <v>16523</v>
+        <v>16016</v>
       </c>
       <c r="G112" t="n">
-        <v>62737</v>
+        <v>84275</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
@@ -5035,10 +5035,10 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>68.5</v>
+        <v>77.7</v>
       </c>
       <c r="K112" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="113">
@@ -5048,22 +5048,22 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>42989</v>
+        <v>83521</v>
       </c>
       <c r="C113" t="n">
-        <v>418</v>
+        <v>352</v>
       </c>
       <c r="D113" t="n">
-        <v>2578</v>
+        <v>3763</v>
       </c>
       <c r="E113" t="n">
-        <v>229</v>
+        <v>113</v>
       </c>
       <c r="F113" t="n">
-        <v>16523</v>
+        <v>14775</v>
       </c>
       <c r="G113" t="n">
-        <v>62737</v>
+        <v>102524</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
@@ -5076,10 +5076,10 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>68.5</v>
+        <v>81.5</v>
       </c>
       <c r="K113" t="n">
-        <v>4.9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114">
@@ -5089,22 +5089,22 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>42989</v>
+        <v>76044</v>
       </c>
       <c r="C114" t="n">
-        <v>418</v>
+        <v>368</v>
       </c>
       <c r="D114" t="n">
-        <v>2578</v>
+        <v>3153</v>
       </c>
       <c r="E114" t="n">
-        <v>229</v>
+        <v>308</v>
       </c>
       <c r="F114" t="n">
-        <v>16523</v>
+        <v>15942</v>
       </c>
       <c r="G114" t="n">
-        <v>62737</v>
+        <v>95815</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
@@ -5117,10 +5117,10 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>68.5</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K114" t="n">
-        <v>4.9</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="115">
@@ -5130,22 +5130,22 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>42989</v>
+        <v>86508</v>
       </c>
       <c r="C115" t="n">
-        <v>418</v>
+        <v>367</v>
       </c>
       <c r="D115" t="n">
-        <v>2578</v>
+        <v>3470</v>
       </c>
       <c r="E115" t="n">
-        <v>229</v>
+        <v>350</v>
       </c>
       <c r="F115" t="n">
-        <v>16523</v>
+        <v>14703</v>
       </c>
       <c r="G115" t="n">
-        <v>62737</v>
+        <v>105398</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
@@ -5158,10 +5158,10 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>68.5</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K115" t="n">
-        <v>4.9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116">
@@ -5171,22 +5171,22 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>42989</v>
+        <v>77224</v>
       </c>
       <c r="C116" t="n">
-        <v>418</v>
+        <v>359</v>
       </c>
       <c r="D116" t="n">
-        <v>2578</v>
+        <v>3486</v>
       </c>
       <c r="E116" t="n">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="F116" t="n">
-        <v>16523</v>
+        <v>16169</v>
       </c>
       <c r="G116" t="n">
-        <v>62737</v>
+        <v>97428</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
@@ -5199,10 +5199,10 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>68.5</v>
+        <v>79.3</v>
       </c>
       <c r="K116" t="n">
-        <v>4.9</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="117">
@@ -5212,22 +5212,22 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>42989</v>
+        <v>62072</v>
       </c>
       <c r="C117" t="n">
-        <v>418</v>
+        <v>450</v>
       </c>
       <c r="D117" t="n">
-        <v>2578</v>
+        <v>3224</v>
       </c>
       <c r="E117" t="n">
-        <v>229</v>
+        <v>1552</v>
       </c>
       <c r="F117" t="n">
-        <v>16523</v>
+        <v>19288</v>
       </c>
       <c r="G117" t="n">
-        <v>62737</v>
+        <v>86586</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
@@ -5240,10 +5240,10 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>68.5</v>
+        <v>71.7</v>
       </c>
       <c r="K117" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118">
@@ -5253,22 +5253,22 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>42989</v>
+        <v>70634</v>
       </c>
       <c r="C118" t="n">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="D118" t="n">
-        <v>2578</v>
+        <v>2736</v>
       </c>
       <c r="E118" t="n">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="F118" t="n">
-        <v>16523</v>
+        <v>16842</v>
       </c>
       <c r="G118" t="n">
-        <v>62737</v>
+        <v>90819</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
@@ -5281,10 +5281,10 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>68.5</v>
+        <v>77.8</v>
       </c>
       <c r="K118" t="n">
-        <v>4.9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119">
@@ -5294,22 +5294,22 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>42989</v>
+        <v>82230</v>
       </c>
       <c r="C119" t="n">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="D119" t="n">
-        <v>2578</v>
+        <v>2240</v>
       </c>
       <c r="E119" t="n">
-        <v>229</v>
+        <v>157</v>
       </c>
       <c r="F119" t="n">
-        <v>16523</v>
+        <v>16051</v>
       </c>
       <c r="G119" t="n">
-        <v>62737</v>
+        <v>101099</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
@@ -5322,10 +5322,10 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>68.5</v>
+        <v>81.3</v>
       </c>
       <c r="K119" t="n">
-        <v>4.9</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="120">
@@ -5335,22 +5335,22 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>42989</v>
+        <v>65116</v>
       </c>
       <c r="C120" t="n">
-        <v>418</v>
+        <v>349</v>
       </c>
       <c r="D120" t="n">
-        <v>2578</v>
+        <v>2519</v>
       </c>
       <c r="E120" t="n">
-        <v>229</v>
+        <v>402</v>
       </c>
       <c r="F120" t="n">
-        <v>16523</v>
+        <v>13852</v>
       </c>
       <c r="G120" t="n">
-        <v>62737</v>
+        <v>82238</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
@@ -5363,10 +5363,10 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>68.5</v>
+        <v>79.2</v>
       </c>
       <c r="K120" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="121">
@@ -5376,22 +5376,22 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>42989</v>
+        <v>58743</v>
       </c>
       <c r="C121" t="n">
-        <v>418</v>
+        <v>365</v>
       </c>
       <c r="D121" t="n">
-        <v>2578</v>
+        <v>3436</v>
       </c>
       <c r="E121" t="n">
-        <v>229</v>
+        <v>355</v>
       </c>
       <c r="F121" t="n">
-        <v>16523</v>
+        <v>14488</v>
       </c>
       <c r="G121" t="n">
-        <v>62737</v>
+        <v>77387</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
@@ -5404,10 +5404,10 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>68.5</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="K121" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="122">
@@ -5417,22 +5417,22 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>42989</v>
+        <v>43866</v>
       </c>
       <c r="C122" t="n">
-        <v>418</v>
+        <v>495</v>
       </c>
       <c r="D122" t="n">
-        <v>2578</v>
+        <v>3712</v>
       </c>
       <c r="E122" t="n">
-        <v>229</v>
+        <v>286</v>
       </c>
       <c r="F122" t="n">
-        <v>16523</v>
+        <v>18896</v>
       </c>
       <c r="G122" t="n">
-        <v>62737</v>
+        <v>67255</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
@@ -5445,10 +5445,10 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>68.5</v>
+        <v>65.2</v>
       </c>
       <c r="K122" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="123">
@@ -5458,22 +5458,22 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>42989</v>
+        <v>26407</v>
       </c>
       <c r="C123" t="n">
-        <v>418</v>
+        <v>219</v>
       </c>
       <c r="D123" t="n">
-        <v>2578</v>
+        <v>2200</v>
       </c>
       <c r="E123" t="n">
-        <v>229</v>
+        <v>848</v>
       </c>
       <c r="F123" t="n">
-        <v>16523</v>
+        <v>12765</v>
       </c>
       <c r="G123" t="n">
-        <v>62737</v>
+        <v>42439</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
@@ -5486,10 +5486,10 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>68.5</v>
+        <v>62.2</v>
       </c>
       <c r="K123" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="124">
@@ -5499,22 +5499,22 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>42989</v>
+        <v>3995</v>
       </c>
       <c r="C124" t="n">
-        <v>418</v>
+        <v>47</v>
       </c>
       <c r="D124" t="n">
-        <v>2578</v>
+        <v>598</v>
       </c>
       <c r="E124" t="n">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="F124" t="n">
-        <v>16523</v>
+        <v>5851</v>
       </c>
       <c r="G124" t="n">
-        <v>62737</v>
+        <v>10570</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
@@ -5527,10 +5527,10 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>68.5</v>
+        <v>37.8</v>
       </c>
       <c r="K124" t="n">
-        <v>4.9</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="125">
@@ -5540,22 +5540,22 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>42989</v>
+        <v>1793</v>
       </c>
       <c r="C125" t="n">
-        <v>418</v>
+        <v>32</v>
       </c>
       <c r="D125" t="n">
-        <v>2578</v>
+        <v>227</v>
       </c>
       <c r="E125" t="n">
-        <v>229</v>
+        <v>7</v>
       </c>
       <c r="F125" t="n">
-        <v>16523</v>
+        <v>4358</v>
       </c>
       <c r="G125" t="n">
-        <v>62737</v>
+        <v>6417</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>68.5</v>
+        <v>27.9</v>
       </c>
       <c r="K125" t="n">
-        <v>4.9</v>
+        <v>34.9</v>
       </c>
     </row>
     <row r="126">
@@ -5581,22 +5581,22 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>42989</v>
+        <v>2996</v>
       </c>
       <c r="C126" t="n">
-        <v>418</v>
+        <v>33</v>
       </c>
       <c r="D126" t="n">
-        <v>2578</v>
+        <v>186</v>
       </c>
       <c r="E126" t="n">
-        <v>229</v>
+        <v>9</v>
       </c>
       <c r="F126" t="n">
-        <v>16523</v>
+        <v>5511</v>
       </c>
       <c r="G126" t="n">
-        <v>62737</v>
+        <v>8735</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
@@ -5609,10 +5609,10 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>68.5</v>
+        <v>34.3</v>
       </c>
       <c r="K126" t="n">
-        <v>4.9</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
